--- a/CELFS_files/CELFScriteria.xlsx
+++ b/CELFS_files/CELFScriteria.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fcdd05545acd4158/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Documents\CELFS\CELFS\CELFS_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="8_{2D7D2F49-A8E5-4E6F-9A7A-7EEF6C3AB36F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{B5174DE0-6C47-4249-A0DA-1BA4A0A796B0}"/>
+  <xr:revisionPtr revIDLastSave="363" documentId="8_{2D7D2F49-A8E5-4E6F-9A7A-7EEF6C3AB36F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{C50FF0BE-8978-49D2-B581-F67E42E2680D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7763" activeTab="3" xr2:uid="{4A26FFE6-5478-4842-9482-742D7DB51E94}"/>
   </bookViews>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="266">
   <si>
     <r>
       <t xml:space="preserve">An </t>
@@ -12266,6 +12266,81 @@
         <family val="1"/>
       </rPr>
       <t>No attempt at task; evidence of cheating; memorised script</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sophisticated </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">accurate use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>of appropriate grammar and punctuation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Completely irrelevenet</t>
     </r>
   </si>
 </sst>
@@ -12796,7 +12871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -12862,7 +12937,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -12872,7 +12946,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -12906,104 +12979,8 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -13012,19 +12989,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -13056,12 +13021,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -13071,41 +13030,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -13114,21 +13040,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13149,9 +13060,6 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -13164,20 +13072,8 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -13194,9 +13090,6 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -13212,20 +13105,9 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -13244,17 +13126,213 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13601,7 +13679,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="86" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -13621,7 +13699,7 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="40"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
@@ -13639,7 +13717,7 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="40"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -13657,7 +13735,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="40"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
@@ -13675,7 +13753,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="41"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="14"/>
       <c r="C6" s="7" t="s">
         <v>22</v>
@@ -13691,7 +13769,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="86" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -13711,7 +13789,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="40"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="6" t="s">
         <v>28</v>
       </c>
@@ -13729,7 +13807,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="40"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
@@ -13747,7 +13825,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="40"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
@@ -13765,7 +13843,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="40"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
@@ -13783,7 +13861,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="41"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="15"/>
       <c r="C12" s="7" t="s">
         <v>37</v>
@@ -13797,7 +13875,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="86" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -13817,7 +13895,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="40"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="6" t="s">
         <v>44</v>
       </c>
@@ -13835,7 +13913,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="40"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="6" t="s">
         <v>45</v>
       </c>
@@ -13853,7 +13931,7 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="40"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="6" t="s">
         <v>46</v>
       </c>
@@ -13871,7 +13949,7 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="40"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="6" t="s">
         <v>47</v>
       </c>
@@ -13889,7 +13967,7 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="40"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="16"/>
       <c r="C18" s="6" t="s">
         <v>53</v>
@@ -13903,7 +13981,7 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="41"/>
+      <c r="A19" s="88"/>
       <c r="B19" s="15"/>
       <c r="C19" s="7" t="s">
         <v>54</v>
@@ -13917,7 +13995,7 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="86" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -13937,7 +14015,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="40"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="6" t="s">
         <v>60</v>
       </c>
@@ -13955,7 +14033,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="40"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="6" t="s">
         <v>61</v>
       </c>
@@ -13973,7 +14051,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A23" s="40"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="6" t="s">
         <v>62</v>
       </c>
@@ -13991,7 +14069,7 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="40"/>
+      <c r="A24" s="87"/>
       <c r="B24" s="6" t="s">
         <v>63</v>
       </c>
@@ -14009,7 +14087,7 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="40"/>
+      <c r="A25" s="87"/>
       <c r="B25" s="9"/>
       <c r="C25" s="6" t="s">
         <v>69</v>
@@ -14023,7 +14101,7 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="41"/>
+      <c r="A26" s="88"/>
       <c r="B26" s="15"/>
       <c r="C26" s="10" t="s">
         <v>125</v>
@@ -14037,7 +14115,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="86" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -14057,7 +14135,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="40"/>
+      <c r="A28" s="87"/>
       <c r="B28" s="6" t="s">
         <v>76</v>
       </c>
@@ -14075,7 +14153,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A29" s="40"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="6" t="s">
         <v>77</v>
       </c>
@@ -14093,7 +14171,7 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="40"/>
+      <c r="A30" s="87"/>
       <c r="B30" s="6" t="s">
         <v>78</v>
       </c>
@@ -14111,7 +14189,7 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="40"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="6" t="s">
         <v>79</v>
       </c>
@@ -14129,7 +14207,7 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="40"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="9"/>
       <c r="C32" s="6" t="s">
         <v>85</v>
@@ -14143,7 +14221,7 @@
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="41"/>
+      <c r="A33" s="88"/>
       <c r="B33" s="15"/>
       <c r="C33" s="7" t="s">
         <v>86</v>
@@ -14157,7 +14235,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="86" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -14177,7 +14255,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="40"/>
+      <c r="A35" s="87"/>
       <c r="B35" s="6" t="s">
         <v>93</v>
       </c>
@@ -14195,7 +14273,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="40"/>
+      <c r="A36" s="87"/>
       <c r="B36" s="6" t="s">
         <v>94</v>
       </c>
@@ -14213,7 +14291,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A37" s="40"/>
+      <c r="A37" s="87"/>
       <c r="B37" s="6" t="s">
         <v>95</v>
       </c>
@@ -14231,7 +14309,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="41"/>
+      <c r="A38" s="88"/>
       <c r="B38" s="6" t="s">
         <v>96</v>
       </c>
@@ -14263,7 +14341,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="89" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -14283,7 +14361,7 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="43"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="6" t="s">
         <v>108</v>
       </c>
@@ -14301,7 +14379,7 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="43"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="6" t="s">
         <v>109</v>
       </c>
@@ -14313,7 +14391,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="43"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="6" t="s">
         <v>110</v>
       </c>
@@ -14325,7 +14403,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="44"/>
+      <c r="A44" s="91"/>
       <c r="B44" s="6" t="s">
         <v>111</v>
       </c>
@@ -14333,34 +14411,34 @@
       <c r="D44" s="16"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="42">
+      <c r="A45" s="89">
         <v>0</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="45" t="s">
+      <c r="D45" s="92" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="43"/>
+      <c r="A46" s="90"/>
       <c r="B46" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="93"/>
     </row>
     <row r="47" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="44"/>
+      <c r="A47" s="91"/>
       <c r="B47" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
     </row>
     <row r="49" ht="14.65" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -14387,7 +14465,7 @@
   <dimension ref="A1:AV18"/>
   <sheetViews>
     <sheetView zoomScale="62" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14406,34 +14484,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="37">
+      <c r="J1" s="35">
         <v>0</v>
       </c>
       <c r="K1" s="20"/>
@@ -14478,10 +14556,10 @@
       <c r="AV1" s="19"/>
     </row>
     <row r="2" spans="1:48" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="98" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -14499,13 +14577,13 @@
       <c r="G2" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="114" t="s">
         <v>126</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="98" t="s">
         <v>127</v>
       </c>
       <c r="K2" s="19"/>
@@ -14548,28 +14626,28 @@
       <c r="AV2" s="19"/>
     </row>
     <row r="3" spans="1:48" ht="34.9" x14ac:dyDescent="0.45">
-      <c r="A3" s="54"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="24" t="s">
+      <c r="H3" s="115"/>
+      <c r="I3" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="70"/>
+      <c r="J3" s="99"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
@@ -14609,31 +14687,31 @@
       <c r="AU3" s="19"/>
       <c r="AV3" s="19"/>
     </row>
-    <row r="4" spans="1:48" ht="34.9" x14ac:dyDescent="0.45">
-      <c r="A4" s="54"/>
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="1:48" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="A4" s="107"/>
+      <c r="B4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="24" t="s">
+      <c r="H4" s="115"/>
+      <c r="I4" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="99"/>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
@@ -14674,359 +14752,359 @@
       <c r="AV4" s="19"/>
     </row>
     <row r="5" spans="1:48" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="54"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="107"/>
+      <c r="B5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="24" t="s">
+      <c r="H5" s="115"/>
+      <c r="I5" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="99"/>
     </row>
     <row r="6" spans="1:48" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="54"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="107"/>
+      <c r="B6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="24" t="s">
+      <c r="H6" s="115"/>
+      <c r="I6" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="71"/>
+      <c r="J6" s="100"/>
     </row>
     <row r="7" spans="1:48" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="25" t="s">
+      <c r="H7" s="115"/>
+      <c r="I7" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="95" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:48" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="56"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="109"/>
+      <c r="B8" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="66" t="s">
+      <c r="H8" s="115"/>
+      <c r="I8" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="64"/>
+      <c r="J8" s="96"/>
     </row>
     <row r="9" spans="1:48" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="56"/>
-      <c r="B9" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="26" t="s">
+      <c r="A9" s="109"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
     </row>
     <row r="10" spans="1:48" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="56"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="72" t="s">
+      <c r="A10" s="109"/>
+      <c r="B10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="64"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="96"/>
     </row>
     <row r="11" spans="1:48" ht="34.9" x14ac:dyDescent="0.45">
-      <c r="A11" s="56"/>
-      <c r="B11" s="66" t="s">
+      <c r="A11" s="109"/>
+      <c r="B11" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="66" t="s">
+      <c r="H11" s="115"/>
+      <c r="I11" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="64"/>
+      <c r="J11" s="96"/>
     </row>
     <row r="12" spans="1:48" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="56"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="72" t="s">
+      <c r="A12" s="109"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="64"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="96"/>
     </row>
     <row r="13" spans="1:48" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="77"/>
-      <c r="B13" s="79" t="s">
+      <c r="A13" s="110"/>
+      <c r="B13" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="30" t="s">
+      <c r="H13" s="115"/>
+      <c r="I13" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="68"/>
+      <c r="J13" s="97"/>
     </row>
     <row r="14" spans="1:48" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="31" t="s">
+      <c r="H14" s="115"/>
+      <c r="I14" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="J14" s="50" t="s">
+      <c r="J14" s="103" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:48" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A15" s="58"/>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="112"/>
+      <c r="B15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="32" t="s">
+      <c r="H15" s="115"/>
+      <c r="I15" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="51"/>
+      <c r="J15" s="104"/>
     </row>
     <row r="16" spans="1:48" ht="46.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="58"/>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="112"/>
+      <c r="B16" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="61"/>
-      <c r="I16" s="48" t="s">
+      <c r="H16" s="115"/>
+      <c r="I16" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="J16" s="51"/>
+      <c r="J16" s="104"/>
     </row>
     <row r="17" spans="1:10" ht="46.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="58"/>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="112"/>
+      <c r="B17" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="51"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="104"/>
     </row>
     <row r="18" spans="1:10" ht="70.150000000000006" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="59"/>
-      <c r="B18" s="33" t="s">
+      <c r="A18" s="113"/>
+      <c r="B18" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="62"/>
-      <c r="I18" s="33" t="s">
+      <c r="H18" s="116"/>
+      <c r="I18" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="J18" s="52"/>
+      <c r="J18" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="J7:J13"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="I16:I17"/>
@@ -15041,6 +15119,8 @@
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -15064,577 +15144,577 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="43" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="45" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="97"/>
-      <c r="B3" s="83" t="s">
+      <c r="A3" s="122"/>
+      <c r="B3" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="45" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="97"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="122"/>
+      <c r="B4" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="45" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="97"/>
-      <c r="B5" s="83" t="s">
+      <c r="A5" s="122"/>
+      <c r="B5" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="45" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="97"/>
-      <c r="B6" s="83" t="s">
+      <c r="A6" s="122"/>
+      <c r="B6" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="45" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="99"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86" t="s">
+      <c r="A7" s="123"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="33.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="124" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="45" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="89"/>
-      <c r="B9" s="83" t="s">
+      <c r="A9" s="124"/>
+      <c r="B9" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="45" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="89"/>
-      <c r="B10" s="83" t="s">
+      <c r="A10" s="124"/>
+      <c r="B10" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="45" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="33.75" x14ac:dyDescent="0.45">
-      <c r="A11" s="89"/>
-      <c r="B11" s="83" t="s">
+      <c r="A11" s="124"/>
+      <c r="B11" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="45" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="89"/>
-      <c r="B12" s="83" t="s">
+      <c r="A12" s="124"/>
+      <c r="B12" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="45" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="22.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="90"/>
-      <c r="B13" s="86" t="s">
+      <c r="A13" s="125"/>
+      <c r="B13" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="48" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="126" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="54" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="103"/>
-      <c r="B15" s="104" t="s">
+      <c r="A15" s="126"/>
+      <c r="B15" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="104" t="s">
+      <c r="C15" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="54" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="103"/>
-      <c r="B16" s="104" t="s">
+      <c r="A16" s="126"/>
+      <c r="B16" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="104" t="s">
+      <c r="C16" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="D16" s="54" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="103"/>
-      <c r="B17" s="104" t="s">
+      <c r="A17" s="126"/>
+      <c r="B17" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="54" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="103"/>
-      <c r="B18" s="104" t="s">
+      <c r="A18" s="126"/>
+      <c r="B18" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="104" t="s">
+      <c r="D18" s="54" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="105"/>
-      <c r="B19" s="106" t="s">
+      <c r="A19" s="127"/>
+      <c r="B19" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="106" t="s">
+      <c r="D19" s="55" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="33.75" x14ac:dyDescent="0.45">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="124" t="s">
         <v>184</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="83" t="s">
+      <c r="D20" s="45" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="89"/>
-      <c r="B21" s="83" t="s">
+      <c r="A21" s="124"/>
+      <c r="B21" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="D21" s="83" t="s">
+      <c r="D21" s="45" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="33.75" x14ac:dyDescent="0.45">
-      <c r="A22" s="89"/>
-      <c r="B22" s="83" t="s">
+      <c r="A22" s="124"/>
+      <c r="B22" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="45" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="89"/>
-      <c r="B23" s="83" t="s">
+      <c r="A23" s="124"/>
+      <c r="B23" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="D23" s="83" t="s">
+      <c r="D23" s="45" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="89"/>
-      <c r="B24" s="83" t="s">
+      <c r="A24" s="124"/>
+      <c r="B24" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="D24" s="83" t="s">
+      <c r="D24" s="45" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="22.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="90"/>
-      <c r="B25" s="86" t="s">
+      <c r="A25" s="125"/>
+      <c r="B25" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="D25" s="86" t="s">
+      <c r="D25" s="48" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="33.75" x14ac:dyDescent="0.45">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="D26" s="83" t="s">
+      <c r="D26" s="45" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="33.75" x14ac:dyDescent="0.45">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="D27" s="83" t="s">
+      <c r="D27" s="45" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="45" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="87"/>
-      <c r="B29" s="83" t="s">
+      <c r="A29" s="49"/>
+      <c r="B29" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="D29" s="83" t="s">
+      <c r="D29" s="45" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="87"/>
-      <c r="B30" s="83" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="D30" s="83" t="s">
+      <c r="D30" s="45" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="22.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="88"/>
-      <c r="B31" s="86" t="s">
+    <row r="31" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="50"/>
+      <c r="B31" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="D31" s="86" t="s">
+      <c r="D31" s="48" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.45">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="D32" s="83" t="s">
+      <c r="D32" s="45" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="33.75" x14ac:dyDescent="0.45">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="D33" s="83" t="s">
+      <c r="D33" s="45" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="87"/>
-      <c r="B34" s="83" t="s">
+      <c r="A34" s="49"/>
+      <c r="B34" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="D34" s="83" t="s">
+      <c r="D34" s="45" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="87"/>
-      <c r="B35" s="83" t="s">
+      <c r="A35" s="49"/>
+      <c r="B35" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="D35" s="83" t="s">
+      <c r="D35" s="45" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="87"/>
-      <c r="B36" s="83" t="s">
+      <c r="A36" s="49"/>
+      <c r="B36" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="83" t="s">
+      <c r="C36" s="51"/>
+      <c r="D36" s="45" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="88"/>
-      <c r="B37" s="86" t="s">
+      <c r="A37" s="50"/>
+      <c r="B37" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
     </row>
     <row r="38" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="92" t="s">
+      <c r="A38" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="94" t="s">
+      <c r="B38" s="128" t="s">
         <v>241</v>
       </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="96"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="130"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" s="93"/>
-      <c r="B39" s="83" t="s">
+      <c r="A39" s="53"/>
+      <c r="B39" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="D39" s="83" t="s">
+      <c r="D39" s="45" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="C40" s="83" t="s">
+      <c r="C40" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="D40" s="83" t="s">
+      <c r="D40" s="45" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="93"/>
-      <c r="B41" s="83" t="s">
+      <c r="A41" s="53"/>
+      <c r="B41" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C41" s="83" t="s">
+      <c r="C41" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="D41" s="83" t="s">
+      <c r="D41" s="45" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" s="82"/>
-      <c r="B42" s="83" t="s">
+      <c r="A42" s="44"/>
+      <c r="B42" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="C42" s="83" t="s">
+      <c r="C42" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="D42" s="83" t="s">
+      <c r="D42" s="45" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="87"/>
-      <c r="B43" s="83" t="s">
+      <c r="A43" s="49"/>
+      <c r="B43" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="91"/>
-      <c r="D43" s="83" t="s">
+      <c r="C43" s="51"/>
+      <c r="D43" s="45" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="87"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="83" t="s">
+      <c r="A44" s="49"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="45" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="98">
+      <c r="A45" s="121">
         <v>0</v>
       </c>
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="C45" s="100" t="s">
+      <c r="C45" s="131" t="s">
         <v>261</v>
       </c>
-      <c r="D45" s="100" t="s">
+      <c r="D45" s="131" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="97"/>
-      <c r="B46" s="83" t="s">
+      <c r="A46" s="122"/>
+      <c r="B46" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="132"/>
     </row>
     <row r="47" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="99"/>
-      <c r="B47" s="86" t="s">
+      <c r="A47" s="123"/>
+      <c r="B47" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="C47" s="102"/>
-      <c r="D47" s="102"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -15646,7 +15726,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H2" sqref="H2:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15664,517 +15744,524 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="34">
+      <c r="J1" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="115" t="s">
+      <c r="E2" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="G2" s="116" t="s">
+      <c r="G2" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="H2" s="111" t="s">
+      <c r="H2" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="125" t="s">
+      <c r="J2" s="140" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="54"/>
-      <c r="B3" s="117" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="145" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F3" s="117" t="s">
+      <c r="F3" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="119" t="s">
+      <c r="G3" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="126" t="s">
+      <c r="H3" s="138"/>
+      <c r="I3" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="J3" s="127"/>
+      <c r="J3" s="141"/>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.45">
-      <c r="A4" s="54"/>
-      <c r="B4" s="117" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="118" t="s">
+      <c r="A4" s="107"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="118" t="s">
+      <c r="E4" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="117" t="s">
+      <c r="F4" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="119" t="s">
+      <c r="G4" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="112"/>
-      <c r="I4" s="126" t="s">
-        <v>245</v>
-      </c>
-      <c r="J4" s="127"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="68" t="s">
+        <v>246</v>
+      </c>
+      <c r="J4" s="141"/>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.45">
-      <c r="A5" s="54"/>
-      <c r="B5" s="117" t="s">
+      <c r="A5" s="107"/>
+      <c r="B5" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="117" t="s">
+      <c r="F5" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="119" t="s">
+      <c r="G5" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="126" t="s">
-        <v>246</v>
-      </c>
-      <c r="J5" s="127"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="J5" s="141"/>
     </row>
     <row r="6" spans="1:10" ht="33.75" x14ac:dyDescent="0.45">
-      <c r="A6" s="54"/>
-      <c r="B6" s="117" t="s">
+      <c r="A6" s="107"/>
+      <c r="B6" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="117" t="s">
+      <c r="D6" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="F6" s="117" t="s">
+      <c r="F6" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="H6" s="112"/>
-      <c r="I6" s="126" t="s">
+      <c r="H6" s="138"/>
+      <c r="I6" s="68" t="s">
         <v>247</v>
       </c>
-      <c r="J6" s="127"/>
+      <c r="J6" s="141"/>
     </row>
     <row r="7" spans="1:10" ht="34.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="109"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="121" t="s">
+      <c r="A7" s="135"/>
+      <c r="B7" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="121" t="s">
+      <c r="E7" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="122" t="s">
+      <c r="F7" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="G7" s="123" t="s">
+      <c r="G7" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="H7" s="112"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="129"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="J7" s="142"/>
     </row>
-    <row r="8" spans="1:10" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="130" t="s">
+      <c r="D8" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="131" t="s">
+      <c r="E8" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="F8" s="130" t="s">
+      <c r="F8" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="G8" s="132" t="s">
+      <c r="G8" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="H8" s="112"/>
-      <c r="I8" s="139" t="s">
+      <c r="H8" s="138"/>
+      <c r="I8" s="77" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="140" t="s">
+      <c r="J8" s="152" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="56"/>
-      <c r="B9" s="133" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="134" t="s">
+      <c r="A9" s="109"/>
+      <c r="B9" s="147" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="133" t="s">
+      <c r="D9" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="134" t="s">
+      <c r="E9" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="F9" s="133" t="s">
+      <c r="F9" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="G9" s="135" t="s">
+      <c r="G9" s="143" t="s">
         <v>233</v>
       </c>
-      <c r="H9" s="112"/>
-      <c r="I9" s="141" t="s">
+      <c r="H9" s="138"/>
+      <c r="I9" s="134" t="s">
         <v>249</v>
       </c>
-      <c r="J9" s="142"/>
+      <c r="J9" s="153"/>
     </row>
     <row r="10" spans="1:10" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="56"/>
-      <c r="B10" s="133" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="134" t="s">
+      <c r="A10" s="109"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="133" t="s">
+      <c r="D10" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="134" t="s">
+      <c r="E10" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="F10" s="133" t="s">
+      <c r="F10" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="G10" s="135"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="142"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="153"/>
     </row>
     <row r="11" spans="1:10" ht="33.75" x14ac:dyDescent="0.45">
-      <c r="A11" s="56"/>
-      <c r="B11" s="133" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="134" t="s">
+      <c r="A11" s="109"/>
+      <c r="B11" s="147" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="133" t="s">
+      <c r="D11" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="E11" s="134" t="s">
+      <c r="E11" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="F11" s="133" t="s">
+      <c r="F11" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="G11" s="135" t="s">
+      <c r="G11" s="143" t="s">
         <v>234</v>
       </c>
-      <c r="H11" s="112"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="27"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="147" t="s">
+        <v>250</v>
+      </c>
+      <c r="J11" s="153"/>
     </row>
-    <row r="12" spans="1:10" ht="33.75" x14ac:dyDescent="0.45">
-      <c r="A12" s="56"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="134" t="s">
+    <row r="12" spans="1:10" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="109"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="133" t="s">
+      <c r="D12" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="134" t="s">
+      <c r="E12" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="F12" s="133" t="s">
+      <c r="F12" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="G12" s="135"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="144" t="s">
-        <v>250</v>
-      </c>
-      <c r="J12" s="27"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="153"/>
     </row>
     <row r="13" spans="1:10" ht="34.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="77"/>
-      <c r="B13" s="136" t="s">
+      <c r="A13" s="110"/>
+      <c r="B13" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="136" t="s">
+      <c r="D13" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="E13" s="137" t="s">
+      <c r="E13" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="F13" s="136" t="s">
+      <c r="F13" s="74" t="s">
         <v>217</v>
       </c>
-      <c r="G13" s="138" t="s">
+      <c r="G13" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="H13" s="112"/>
-      <c r="I13" s="145" t="s">
+      <c r="H13" s="138"/>
+      <c r="I13" s="79" t="s">
         <v>251</v>
       </c>
-      <c r="J13" s="146"/>
+      <c r="J13" s="154"/>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.45">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="148" t="s">
+      <c r="C14" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="147" t="s">
+      <c r="D14" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="148" t="s">
+      <c r="E14" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="F14" s="147" t="s">
+      <c r="F14" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="G14" s="148" t="s">
+      <c r="G14" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="H14" s="112"/>
-      <c r="I14" s="148" t="s">
+      <c r="H14" s="138"/>
+      <c r="I14" s="81" t="s">
         <v>252</v>
       </c>
-      <c r="J14" s="154" t="s">
+      <c r="J14" s="149" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="56.25" x14ac:dyDescent="0.45">
-      <c r="A15" s="58"/>
-      <c r="B15" s="149" t="s">
+      <c r="A15" s="112"/>
+      <c r="B15" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="150" t="s">
+      <c r="C15" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="149" t="s">
+      <c r="D15" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="E15" s="150" t="s">
+      <c r="E15" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="F15" s="149" t="s">
+      <c r="F15" s="82" t="s">
         <v>219</v>
       </c>
-      <c r="G15" s="150" t="s">
+      <c r="G15" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="H15" s="112"/>
-      <c r="I15" s="150" t="s">
+      <c r="H15" s="138"/>
+      <c r="I15" s="83" t="s">
         <v>253</v>
       </c>
-      <c r="J15" s="155"/>
+      <c r="J15" s="150"/>
     </row>
     <row r="16" spans="1:10" ht="44.65" x14ac:dyDescent="0.45">
-      <c r="A16" s="58"/>
-      <c r="B16" s="149" t="s">
+      <c r="A16" s="112"/>
+      <c r="B16" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="149" t="s">
+      <c r="D16" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="150" t="s">
+      <c r="E16" s="83" t="s">
         <v>199</v>
       </c>
-      <c r="F16" s="149" t="s">
+      <c r="F16" s="82" t="s">
         <v>220</v>
       </c>
-      <c r="G16" s="150" t="s">
+      <c r="G16" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="H16" s="112"/>
-      <c r="I16" s="150" t="s">
+      <c r="H16" s="138"/>
+      <c r="I16" s="83" t="s">
         <v>254</v>
       </c>
-      <c r="J16" s="155"/>
+      <c r="J16" s="150"/>
     </row>
     <row r="17" spans="1:10" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="58"/>
-      <c r="B17" s="149" t="s">
+      <c r="A17" s="112"/>
+      <c r="B17" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="150" t="s">
+      <c r="C17" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="149" t="s">
+      <c r="D17" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="E17" s="150" t="s">
+      <c r="E17" s="83" t="s">
         <v>200</v>
       </c>
-      <c r="F17" s="149" t="s">
+      <c r="F17" s="82" t="s">
         <v>221</v>
       </c>
-      <c r="G17" s="150" t="s">
+      <c r="G17" s="83" t="s">
         <v>239</v>
       </c>
-      <c r="H17" s="112"/>
-      <c r="I17" s="150" t="s">
+      <c r="H17" s="138"/>
+      <c r="I17" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="J17" s="156"/>
+      <c r="J17" s="150"/>
     </row>
     <row r="18" spans="1:10" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="58"/>
-      <c r="B18" s="149" t="s">
+      <c r="A18" s="112"/>
+      <c r="B18" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="150" t="s">
+      <c r="C18" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="D18" s="149" t="s">
+      <c r="D18" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="E18" s="150" t="s">
+      <c r="E18" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="F18" s="149" t="s">
+      <c r="F18" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="G18" s="150" t="s">
+      <c r="G18" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="H18" s="112"/>
-      <c r="I18" s="150" t="s">
+      <c r="H18" s="138"/>
+      <c r="I18" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="J18" s="156"/>
+      <c r="J18" s="150"/>
     </row>
     <row r="19" spans="1:10" ht="22.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="59"/>
-      <c r="B19" s="151" t="s">
+      <c r="A19" s="113"/>
+      <c r="B19" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="152" t="s">
+      <c r="C19" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="151" t="s">
+      <c r="D19" s="84" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="152" t="s">
+      <c r="E19" s="85" t="s">
         <v>202</v>
       </c>
-      <c r="F19" s="151" t="s">
+      <c r="F19" s="84" t="s">
         <v>223</v>
       </c>
-      <c r="G19" s="153"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="152" t="s">
+      <c r="G19" s="85" t="s">
         <v>257</v>
       </c>
-      <c r="J19" s="157"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="J19" s="151"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="J8:J13"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="H2:H19"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CELFS_files/CELFScriteria.xlsx
+++ b/CELFS_files/CELFScriteria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Documents\CELFS\CELFS\CELFS_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="363" documentId="8_{2D7D2F49-A8E5-4E6F-9A7A-7EEF6C3AB36F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{C50FF0BE-8978-49D2-B581-F67E42E2680D}"/>
+  <xr:revisionPtr revIDLastSave="363" documentId="8_{2D7D2F49-A8E5-4E6F-9A7A-7EEF6C3AB36F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{C50FF0BE-8978-49D2-B581-F67E42E2680D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7763" activeTab="3" xr2:uid="{4A26FFE6-5478-4842-9482-742D7DB51E94}"/>
   </bookViews>
@@ -13231,6 +13231,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13239,6 +13242,15 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -13261,33 +13273,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13298,15 +13283,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13331,6 +13307,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14627,7 +14627,7 @@
     </row>
     <row r="3" spans="1:48" ht="34.9" x14ac:dyDescent="0.45">
       <c r="A3" s="107"/>
-      <c r="B3" s="144"/>
+      <c r="B3" s="121"/>
       <c r="C3" s="23" t="s">
         <v>28</v>
       </c>
@@ -15158,7 +15158,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="122" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="45" t="s">
@@ -15172,7 +15172,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="122"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="45" t="s">
         <v>131</v>
       </c>
@@ -15184,7 +15184,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="122"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="45" t="s">
         <v>132</v>
       </c>
@@ -15196,7 +15196,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="122"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="45" t="s">
         <v>133</v>
       </c>
@@ -15208,7 +15208,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="122"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="45" t="s">
         <v>134</v>
       </c>
@@ -15220,7 +15220,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="123"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="46"/>
       <c r="C7" s="47"/>
       <c r="D7" s="48" t="s">
@@ -15228,7 +15228,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="33.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="128" t="s">
         <v>146</v>
       </c>
       <c r="B8" s="45" t="s">
@@ -15242,7 +15242,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="124"/>
+      <c r="A9" s="128"/>
       <c r="B9" s="45" t="s">
         <v>148</v>
       </c>
@@ -15254,7 +15254,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="124"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="45" t="s">
         <v>149</v>
       </c>
@@ -15266,7 +15266,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="33.75" x14ac:dyDescent="0.45">
-      <c r="A11" s="124"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="45" t="s">
         <v>150</v>
       </c>
@@ -15278,7 +15278,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="124"/>
+      <c r="A12" s="128"/>
       <c r="B12" s="45" t="s">
         <v>151</v>
       </c>
@@ -15290,7 +15290,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="22.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="125"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="48" t="s">
         <v>152</v>
       </c>
@@ -15302,7 +15302,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="126" t="s">
+      <c r="A14" s="130" t="s">
         <v>165</v>
       </c>
       <c r="B14" s="54" t="s">
@@ -15316,7 +15316,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="126"/>
+      <c r="A15" s="130"/>
       <c r="B15" s="54" t="s">
         <v>167</v>
       </c>
@@ -15328,7 +15328,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="126"/>
+      <c r="A16" s="130"/>
       <c r="B16" s="54" t="s">
         <v>168</v>
       </c>
@@ -15340,7 +15340,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="126"/>
+      <c r="A17" s="130"/>
       <c r="B17" s="54" t="s">
         <v>169</v>
       </c>
@@ -15352,7 +15352,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="126"/>
+      <c r="A18" s="130"/>
       <c r="B18" s="54" t="s">
         <v>170</v>
       </c>
@@ -15364,7 +15364,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="127"/>
+      <c r="A19" s="131"/>
       <c r="B19" s="55" t="s">
         <v>171</v>
       </c>
@@ -15376,7 +15376,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33.75" x14ac:dyDescent="0.45">
-      <c r="A20" s="124" t="s">
+      <c r="A20" s="128" t="s">
         <v>184</v>
       </c>
       <c r="B20" s="45" t="s">
@@ -15390,7 +15390,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="124"/>
+      <c r="A21" s="128"/>
       <c r="B21" s="45" t="s">
         <v>186</v>
       </c>
@@ -15402,7 +15402,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="33.75" x14ac:dyDescent="0.45">
-      <c r="A22" s="124"/>
+      <c r="A22" s="128"/>
       <c r="B22" s="45" t="s">
         <v>187</v>
       </c>
@@ -15414,7 +15414,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="124"/>
+      <c r="A23" s="128"/>
       <c r="B23" s="45" t="s">
         <v>188</v>
       </c>
@@ -15426,7 +15426,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="124"/>
+      <c r="A24" s="128"/>
       <c r="B24" s="45" t="s">
         <v>189</v>
       </c>
@@ -15438,7 +15438,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="22.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="125"/>
+      <c r="A25" s="129"/>
       <c r="B25" s="48" t="s">
         <v>190</v>
       </c>
@@ -15601,11 +15601,11 @@
       <c r="A38" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="128" t="s">
+      <c r="B38" s="132" t="s">
         <v>241</v>
       </c>
-      <c r="C38" s="129"/>
-      <c r="D38" s="130"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="134"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="53"/>
@@ -15676,34 +15676,34 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="121">
+      <c r="A45" s="122">
         <v>0</v>
       </c>
       <c r="B45" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="C45" s="131" t="s">
+      <c r="C45" s="125" t="s">
         <v>261</v>
       </c>
-      <c r="D45" s="131" t="s">
+      <c r="D45" s="125" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="122"/>
+      <c r="A46" s="123"/>
       <c r="B46" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="C46" s="132"/>
-      <c r="D46" s="132"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="126"/>
     </row>
     <row r="47" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="123"/>
+      <c r="A47" s="124"/>
       <c r="B47" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="C47" s="133"/>
-      <c r="D47" s="133"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15726,7 +15726,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H19"/>
+      <selection activeCell="J2" sqref="J2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15797,19 +15797,19 @@
       <c r="G2" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="H2" s="137" t="s">
+      <c r="H2" s="150" t="s">
         <v>126</v>
       </c>
       <c r="I2" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="140" t="s">
+      <c r="J2" s="135" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33.75" x14ac:dyDescent="0.45">
       <c r="A3" s="107"/>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="153" t="s">
         <v>131</v>
       </c>
       <c r="C3" s="62" t="s">
@@ -15827,15 +15827,15 @@
       <c r="G3" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="H3" s="138"/>
+      <c r="H3" s="151"/>
       <c r="I3" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="J3" s="141"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.45">
       <c r="A4" s="107"/>
-      <c r="B4" s="146"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="62" t="s">
         <v>149</v>
       </c>
@@ -15851,11 +15851,11 @@
       <c r="G4" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="138"/>
+      <c r="H4" s="151"/>
       <c r="I4" s="68" t="s">
         <v>246</v>
       </c>
-      <c r="J4" s="141"/>
+      <c r="J4" s="136"/>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.45">
       <c r="A5" s="107"/>
@@ -15877,11 +15877,11 @@
       <c r="G5" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="H5" s="138"/>
+      <c r="H5" s="151"/>
       <c r="I5" s="63" t="s">
         <v>265</v>
       </c>
-      <c r="J5" s="141"/>
+      <c r="J5" s="136"/>
     </row>
     <row r="6" spans="1:10" ht="33.75" x14ac:dyDescent="0.45">
       <c r="A6" s="107"/>
@@ -15903,14 +15903,14 @@
       <c r="G6" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="H6" s="138"/>
+      <c r="H6" s="151"/>
       <c r="I6" s="68" t="s">
         <v>247</v>
       </c>
-      <c r="J6" s="141"/>
+      <c r="J6" s="136"/>
     </row>
     <row r="7" spans="1:10" ht="34.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="135"/>
+      <c r="A7" s="148"/>
       <c r="B7" s="65" t="s">
         <v>132</v>
       </c>
@@ -15929,11 +15929,11 @@
       <c r="G7" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="H7" s="138"/>
+      <c r="H7" s="151"/>
       <c r="I7" s="68" t="s">
         <v>245</v>
       </c>
-      <c r="J7" s="142"/>
+      <c r="J7" s="137"/>
     </row>
     <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="108" t="s">
@@ -15957,17 +15957,17 @@
       <c r="G8" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="H8" s="138"/>
+      <c r="H8" s="151"/>
       <c r="I8" s="77" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="152" t="s">
+      <c r="J8" s="144" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33.75" x14ac:dyDescent="0.45">
       <c r="A9" s="109"/>
-      <c r="B9" s="147" t="s">
+      <c r="B9" s="139" t="s">
         <v>264</v>
       </c>
       <c r="C9" s="73" t="s">
@@ -15982,18 +15982,18 @@
       <c r="F9" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="138" t="s">
         <v>233</v>
       </c>
-      <c r="H9" s="138"/>
-      <c r="I9" s="134" t="s">
+      <c r="H9" s="151"/>
+      <c r="I9" s="147" t="s">
         <v>249</v>
       </c>
-      <c r="J9" s="153"/>
+      <c r="J9" s="145"/>
     </row>
     <row r="10" spans="1:10" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A10" s="109"/>
-      <c r="B10" s="148"/>
+      <c r="B10" s="140"/>
       <c r="C10" s="73" t="s">
         <v>155</v>
       </c>
@@ -16006,14 +16006,14 @@
       <c r="F10" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="G10" s="143"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="153"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="145"/>
     </row>
     <row r="11" spans="1:10" ht="33.75" x14ac:dyDescent="0.45">
       <c r="A11" s="109"/>
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="139" t="s">
         <v>137</v>
       </c>
       <c r="C11" s="73" t="s">
@@ -16028,18 +16028,18 @@
       <c r="F11" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="G11" s="143" t="s">
+      <c r="G11" s="138" t="s">
         <v>234</v>
       </c>
-      <c r="H11" s="138"/>
-      <c r="I11" s="147" t="s">
+      <c r="H11" s="151"/>
+      <c r="I11" s="139" t="s">
         <v>250</v>
       </c>
-      <c r="J11" s="153"/>
+      <c r="J11" s="145"/>
     </row>
     <row r="12" spans="1:10" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A12" s="109"/>
-      <c r="B12" s="148"/>
+      <c r="B12" s="140"/>
       <c r="C12" s="73" t="s">
         <v>157</v>
       </c>
@@ -16052,10 +16052,10 @@
       <c r="F12" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="G12" s="143"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="153"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="145"/>
     </row>
     <row r="13" spans="1:10" ht="34.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="110"/>
@@ -16077,14 +16077,14 @@
       <c r="G13" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="H13" s="138"/>
+      <c r="H13" s="151"/>
       <c r="I13" s="79" t="s">
         <v>251</v>
       </c>
-      <c r="J13" s="154"/>
+      <c r="J13" s="146"/>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.45">
-      <c r="A14" s="136" t="s">
+      <c r="A14" s="149" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="80" t="s">
@@ -16105,11 +16105,11 @@
       <c r="G14" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="H14" s="138"/>
+      <c r="H14" s="151"/>
       <c r="I14" s="81" t="s">
         <v>252</v>
       </c>
-      <c r="J14" s="149" t="s">
+      <c r="J14" s="141" t="s">
         <v>262</v>
       </c>
     </row>
@@ -16133,11 +16133,11 @@
       <c r="G15" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="H15" s="138"/>
+      <c r="H15" s="151"/>
       <c r="I15" s="83" t="s">
         <v>253</v>
       </c>
-      <c r="J15" s="150"/>
+      <c r="J15" s="142"/>
     </row>
     <row r="16" spans="1:10" ht="44.65" x14ac:dyDescent="0.45">
       <c r="A16" s="112"/>
@@ -16159,11 +16159,11 @@
       <c r="G16" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="H16" s="138"/>
+      <c r="H16" s="151"/>
       <c r="I16" s="83" t="s">
         <v>254</v>
       </c>
-      <c r="J16" s="150"/>
+      <c r="J16" s="142"/>
     </row>
     <row r="17" spans="1:10" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A17" s="112"/>
@@ -16185,11 +16185,11 @@
       <c r="G17" s="83" t="s">
         <v>239</v>
       </c>
-      <c r="H17" s="138"/>
+      <c r="H17" s="151"/>
       <c r="I17" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="J17" s="150"/>
+      <c r="J17" s="142"/>
     </row>
     <row r="18" spans="1:10" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A18" s="112"/>
@@ -16211,11 +16211,11 @@
       <c r="G18" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="H18" s="138"/>
+      <c r="H18" s="151"/>
       <c r="I18" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="J18" s="150"/>
+      <c r="J18" s="142"/>
     </row>
     <row r="19" spans="1:10" ht="22.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="113"/>
@@ -16237,14 +16237,21 @@
       <c r="G19" s="85" t="s">
         <v>257</v>
       </c>
-      <c r="H19" s="139"/>
+      <c r="H19" s="152"/>
       <c r="I19" s="85" t="s">
         <v>257</v>
       </c>
-      <c r="J19" s="151"/>
+      <c r="J19" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="H2:H19"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="J2:J7"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="G9:G10"/>
@@ -16252,13 +16259,6 @@
     <mergeCell ref="J14:J19"/>
     <mergeCell ref="J8:J13"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="H2:H19"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/CELFS_files/CELFScriteria.xlsx
+++ b/CELFS_files/CELFScriteria.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Documents\CELFS\CELFS\CELFS_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fcdd05545acd4158/Documents/CELFS/CELFS/CELFS_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="363" documentId="8_{2D7D2F49-A8E5-4E6F-9A7A-7EEF6C3AB36F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{C50FF0BE-8978-49D2-B581-F67E42E2680D}"/>
@@ -13273,6 +13273,33 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13283,12 +13310,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13310,27 +13331,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15797,19 +15797,19 @@
       <c r="G2" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="H2" s="150" t="s">
+      <c r="H2" s="137" t="s">
         <v>126</v>
       </c>
       <c r="I2" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="135" t="s">
+      <c r="J2" s="144" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33.75" x14ac:dyDescent="0.45">
       <c r="A3" s="107"/>
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="140" t="s">
         <v>131</v>
       </c>
       <c r="C3" s="62" t="s">
@@ -15827,15 +15827,15 @@
       <c r="G3" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="H3" s="151"/>
+      <c r="H3" s="138"/>
       <c r="I3" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="J3" s="136"/>
+      <c r="J3" s="145"/>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.45">
       <c r="A4" s="107"/>
-      <c r="B4" s="154"/>
+      <c r="B4" s="141"/>
       <c r="C4" s="62" t="s">
         <v>149</v>
       </c>
@@ -15851,11 +15851,11 @@
       <c r="G4" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="151"/>
+      <c r="H4" s="138"/>
       <c r="I4" s="68" t="s">
         <v>246</v>
       </c>
-      <c r="J4" s="136"/>
+      <c r="J4" s="145"/>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.45">
       <c r="A5" s="107"/>
@@ -15877,11 +15877,11 @@
       <c r="G5" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="H5" s="151"/>
+      <c r="H5" s="138"/>
       <c r="I5" s="63" t="s">
         <v>265</v>
       </c>
-      <c r="J5" s="136"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="1:10" ht="33.75" x14ac:dyDescent="0.45">
       <c r="A6" s="107"/>
@@ -15903,14 +15903,14 @@
       <c r="G6" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="H6" s="151"/>
+      <c r="H6" s="138"/>
       <c r="I6" s="68" t="s">
         <v>247</v>
       </c>
-      <c r="J6" s="136"/>
+      <c r="J6" s="145"/>
     </row>
     <row r="7" spans="1:10" ht="34.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="148"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="65" t="s">
         <v>132</v>
       </c>
@@ -15929,11 +15929,11 @@
       <c r="G7" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="H7" s="151"/>
+      <c r="H7" s="138"/>
       <c r="I7" s="68" t="s">
         <v>245</v>
       </c>
-      <c r="J7" s="137"/>
+      <c r="J7" s="146"/>
     </row>
     <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="108" t="s">
@@ -15957,17 +15957,17 @@
       <c r="G8" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="H8" s="151"/>
+      <c r="H8" s="138"/>
       <c r="I8" s="77" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="144" t="s">
+      <c r="J8" s="151" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33.75" x14ac:dyDescent="0.45">
       <c r="A9" s="109"/>
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="142" t="s">
         <v>264</v>
       </c>
       <c r="C9" s="73" t="s">
@@ -15982,18 +15982,18 @@
       <c r="F9" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="G9" s="138" t="s">
+      <c r="G9" s="147" t="s">
         <v>233</v>
       </c>
-      <c r="H9" s="151"/>
-      <c r="I9" s="147" t="s">
+      <c r="H9" s="138"/>
+      <c r="I9" s="154" t="s">
         <v>249</v>
       </c>
-      <c r="J9" s="145"/>
+      <c r="J9" s="152"/>
     </row>
     <row r="10" spans="1:10" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A10" s="109"/>
-      <c r="B10" s="140"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="73" t="s">
         <v>155</v>
       </c>
@@ -16006,14 +16006,14 @@
       <c r="F10" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="G10" s="138"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="145"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="152"/>
     </row>
     <row r="11" spans="1:10" ht="33.75" x14ac:dyDescent="0.45">
       <c r="A11" s="109"/>
-      <c r="B11" s="139" t="s">
+      <c r="B11" s="142" t="s">
         <v>137</v>
       </c>
       <c r="C11" s="73" t="s">
@@ -16028,18 +16028,18 @@
       <c r="F11" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="G11" s="138" t="s">
+      <c r="G11" s="147" t="s">
         <v>234</v>
       </c>
-      <c r="H11" s="151"/>
-      <c r="I11" s="139" t="s">
+      <c r="H11" s="138"/>
+      <c r="I11" s="142" t="s">
         <v>250</v>
       </c>
-      <c r="J11" s="145"/>
+      <c r="J11" s="152"/>
     </row>
     <row r="12" spans="1:10" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A12" s="109"/>
-      <c r="B12" s="140"/>
+      <c r="B12" s="143"/>
       <c r="C12" s="73" t="s">
         <v>157</v>
       </c>
@@ -16052,10 +16052,10 @@
       <c r="F12" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="G12" s="138"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="145"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="152"/>
     </row>
     <row r="13" spans="1:10" ht="34.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="110"/>
@@ -16077,14 +16077,14 @@
       <c r="G13" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="H13" s="151"/>
+      <c r="H13" s="138"/>
       <c r="I13" s="79" t="s">
         <v>251</v>
       </c>
-      <c r="J13" s="146"/>
+      <c r="J13" s="153"/>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.45">
-      <c r="A14" s="149" t="s">
+      <c r="A14" s="136" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="80" t="s">
@@ -16105,11 +16105,11 @@
       <c r="G14" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="H14" s="151"/>
+      <c r="H14" s="138"/>
       <c r="I14" s="81" t="s">
         <v>252</v>
       </c>
-      <c r="J14" s="141" t="s">
+      <c r="J14" s="148" t="s">
         <v>262</v>
       </c>
     </row>
@@ -16133,11 +16133,11 @@
       <c r="G15" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="H15" s="151"/>
+      <c r="H15" s="138"/>
       <c r="I15" s="83" t="s">
         <v>253</v>
       </c>
-      <c r="J15" s="142"/>
+      <c r="J15" s="149"/>
     </row>
     <row r="16" spans="1:10" ht="44.65" x14ac:dyDescent="0.45">
       <c r="A16" s="112"/>
@@ -16159,11 +16159,11 @@
       <c r="G16" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="H16" s="151"/>
+      <c r="H16" s="138"/>
       <c r="I16" s="83" t="s">
         <v>254</v>
       </c>
-      <c r="J16" s="142"/>
+      <c r="J16" s="149"/>
     </row>
     <row r="17" spans="1:10" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A17" s="112"/>
@@ -16185,11 +16185,11 @@
       <c r="G17" s="83" t="s">
         <v>239</v>
       </c>
-      <c r="H17" s="151"/>
+      <c r="H17" s="138"/>
       <c r="I17" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="J17" s="142"/>
+      <c r="J17" s="149"/>
     </row>
     <row r="18" spans="1:10" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A18" s="112"/>
@@ -16211,11 +16211,11 @@
       <c r="G18" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="H18" s="151"/>
+      <c r="H18" s="138"/>
       <c r="I18" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="J18" s="142"/>
+      <c r="J18" s="149"/>
     </row>
     <row r="19" spans="1:10" ht="22.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="113"/>
@@ -16237,14 +16237,21 @@
       <c r="G19" s="85" t="s">
         <v>257</v>
       </c>
-      <c r="H19" s="152"/>
+      <c r="H19" s="139"/>
       <c r="I19" s="85" t="s">
         <v>257</v>
       </c>
-      <c r="J19" s="143"/>
+      <c r="J19" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A19"/>
@@ -16252,13 +16259,6 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J14:J19"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
